--- a/TPs/TP1/TABLA20/AG_TP1_Ruleta_c_Elitismo.xlsx
+++ b/TPs/TP1/TABLA20/AG_TP1_Ruleta_c_Elitismo.xlsx
@@ -402,13 +402,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9521223316960383</v>
+        <v>0.4607424937064567</v>
       </c>
       <c r="C2">
-        <v>0.0007721069122088128</v>
+        <v>0.007332506421495208</v>
       </c>
       <c r="D2">
-        <v>0.2970040413578389</v>
+        <v>0.161185543189924</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9668085280291169</v>
+        <v>0.4607427389858414</v>
       </c>
       <c r="C3">
-        <v>0.4291356310653545</v>
+        <v>0.01302124929503143</v>
       </c>
       <c r="D3">
-        <v>0.7174447018671027</v>
+        <v>0.3317485209897288</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9668085316920615</v>
+        <v>0.4607427389858414</v>
       </c>
       <c r="C4">
-        <v>0.4291353186968055</v>
+        <v>0.2996787298575033</v>
       </c>
       <c r="D4">
-        <v>0.7585982632470654</v>
+        <v>0.3802105497757721</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -444,13 +444,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9674222308901983</v>
+        <v>0.4607427389858414</v>
       </c>
       <c r="C5">
-        <v>0.4291353186968055</v>
+        <v>0.2996787298575033</v>
       </c>
       <c r="D5">
-        <v>0.822884013134901</v>
+        <v>0.4124095423931163</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -458,13 +458,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9822330666507716</v>
+        <v>0.4607427389858414</v>
       </c>
       <c r="C6">
-        <v>0.5381394421617853</v>
+        <v>0.2996787298575033</v>
       </c>
       <c r="D6">
-        <v>0.9242485400901437</v>
+        <v>0.4124108839667709</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -472,13 +472,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9822330666507716</v>
+        <v>0.4607427389858414</v>
       </c>
       <c r="C7">
-        <v>0.5381394421617853</v>
+        <v>0.4607424937064567</v>
       </c>
       <c r="D7">
-        <v>0.921152692637263</v>
+        <v>0.4607425672902721</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -486,13 +486,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9822387413375072</v>
+        <v>0.4607428173741122</v>
       </c>
       <c r="C8">
-        <v>0.7500888862315795</v>
+        <v>0.4607418463714868</v>
       </c>
       <c r="D8">
-        <v>0.9378517559322883</v>
+        <v>0.4607425751291318</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -500,13 +500,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9822330666507716</v>
+        <v>0.4607428173741122</v>
       </c>
       <c r="C9">
-        <v>0.7501002431575415</v>
+        <v>0.4607417679832986</v>
       </c>
       <c r="D9">
-        <v>0.9362189318494394</v>
+        <v>0.460742567796075</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -514,13 +514,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9822330666507716</v>
+        <v>0.4607428173741122</v>
       </c>
       <c r="C10">
-        <v>0.7366240206644729</v>
+        <v>0.4607417679832986</v>
       </c>
       <c r="D10">
-        <v>0.9162369072560004</v>
+        <v>0.4607426694479145</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -528,13 +528,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9822330666507716</v>
+        <v>0.4607428173741122</v>
       </c>
       <c r="C11">
-        <v>0.7499949400042539</v>
+        <v>0.4607427389858414</v>
       </c>
       <c r="D11">
-        <v>0.9116562615692354</v>
+        <v>0.4607427743869958</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -542,13 +542,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9822331884883759</v>
+        <v>0.4610743127161998</v>
       </c>
       <c r="C12">
-        <v>0.9084366135710497</v>
+        <v>0.4607427364571876</v>
       </c>
       <c r="D12">
-        <v>0.959780931987515</v>
+        <v>0.4607759350472819</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -556,13 +556,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9822333029418896</v>
+        <v>0.4610743127161998</v>
       </c>
       <c r="C13">
-        <v>0.9369293974583686</v>
+        <v>0.4607427364571876</v>
       </c>
       <c r="D13">
-        <v>0.9686534526576758</v>
+        <v>0.4608091177068588</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -570,13 +570,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9824751654948254</v>
+        <v>0.4610743152457633</v>
       </c>
       <c r="C14">
-        <v>0.936929628235917</v>
+        <v>0.4607428148454582</v>
       </c>
       <c r="D14">
-        <v>0.9732080512444107</v>
+        <v>0.4608754324531124</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -584,13 +584,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9824751654948254</v>
+        <v>0.4610743152457633</v>
       </c>
       <c r="C15">
-        <v>0.9821726988933764</v>
+        <v>0.4607428173741122</v>
       </c>
       <c r="D15">
-        <v>0.9822751768016025</v>
+        <v>0.4609085827460082</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -598,13 +598,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9824751654948254</v>
+        <v>0.4610743152457633</v>
       </c>
       <c r="C16">
-        <v>0.9821123256074873</v>
+        <v>0.4607428173741122</v>
       </c>
       <c r="D16">
-        <v>0.9822693421663841</v>
+        <v>0.4609417166027427</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -612,13 +612,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9841698390049997</v>
+        <v>0.8626330160918461</v>
       </c>
       <c r="C17">
-        <v>0.9821123256074873</v>
+        <v>0.4607428199027662</v>
       </c>
       <c r="D17">
-        <v>0.9824508854862894</v>
+        <v>0.5010975871931727</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -626,13 +626,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9841698390049997</v>
+        <v>0.8630865817475705</v>
       </c>
       <c r="C18">
-        <v>0.9817493201913051</v>
+        <v>0.4607428199027662</v>
       </c>
       <c r="D18">
-        <v>0.9827412821484005</v>
+        <v>0.5413319633776532</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -640,13 +640,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9841700718332759</v>
+        <v>0.8630865817475705</v>
       </c>
       <c r="C19">
-        <v>0.8640126862896175</v>
+        <v>0.4610743152457633</v>
       </c>
       <c r="D19">
-        <v>0.9590491488054743</v>
+        <v>0.7825480587504916</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -654,13 +654,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9841700718332759</v>
+        <v>0.8630865817475705</v>
       </c>
       <c r="C20">
-        <v>0.8640126862896175</v>
+        <v>0.4610743152457633</v>
       </c>
       <c r="D20">
-        <v>0.9589297530449766</v>
+        <v>0.8227946419662449</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -668,13 +668,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9976578636605874</v>
+        <v>0.8630865817475705</v>
       </c>
       <c r="C21">
-        <v>0.8621423781571329</v>
+        <v>0.4610743152457633</v>
       </c>
       <c r="D21">
-        <v>0.9488830745985757</v>
+        <v>0.8228853550973897</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -682,13 +682,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9997317076888992</v>
+        <v>0.8630865817475705</v>
       </c>
       <c r="C22">
-        <v>0.8621423781571329</v>
+        <v>0.8630865817475705</v>
       </c>
       <c r="D22">
-        <v>0.9627650441736352</v>
+        <v>0.8630865817475705</v>
       </c>
     </row>
   </sheetData>
